--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H2">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>43.05637715825373</v>
+        <v>148.901599011724</v>
       </c>
       <c r="R2">
-        <v>43.05637715825373</v>
+        <v>1340.114391105516</v>
       </c>
       <c r="S2">
-        <v>0.001570441829968288</v>
+        <v>0.004898298089232445</v>
       </c>
       <c r="T2">
-        <v>0.001570441829968288</v>
+        <v>0.004898298089232446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H3">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I3">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J3">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>24.06192850621527</v>
+        <v>79.49829058053999</v>
       </c>
       <c r="R3">
-        <v>24.06192850621527</v>
+        <v>715.4846152248599</v>
       </c>
       <c r="S3">
-        <v>0.0008776367527852504</v>
+        <v>0.002615192364839845</v>
       </c>
       <c r="T3">
-        <v>0.0008776367527852504</v>
+        <v>0.002615192364839845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H4">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I4">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J4">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>54.03190172392395</v>
+        <v>178.835031736192</v>
       </c>
       <c r="R4">
-        <v>54.03190172392395</v>
+        <v>1609.515285625728</v>
       </c>
       <c r="S4">
-        <v>0.001970764012682839</v>
+        <v>0.005882994541732494</v>
       </c>
       <c r="T4">
-        <v>0.001970764012682839</v>
+        <v>0.005882994541732496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H5">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I5">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J5">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>30.23770677964372</v>
+        <v>109.911483707064</v>
       </c>
       <c r="R5">
-        <v>30.23770677964372</v>
+        <v>989.2033533635758</v>
       </c>
       <c r="S5">
-        <v>0.001102892595782765</v>
+        <v>0.003615671115691809</v>
       </c>
       <c r="T5">
-        <v>0.001102892595782765</v>
+        <v>0.00361567111569181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H6">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I6">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J6">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>3.835937750666262</v>
+        <v>13.61103656848</v>
       </c>
       <c r="R6">
-        <v>3.835937750666262</v>
+        <v>122.49932911632</v>
       </c>
       <c r="S6">
-        <v>0.0001399123079644885</v>
+        <v>0.0004477515007116148</v>
       </c>
       <c r="T6">
-        <v>0.0001399123079644885</v>
+        <v>0.0004477515007116148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="H7">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="I7">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J7">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>154.212319310135</v>
+        <v>167.065857123666</v>
       </c>
       <c r="R7">
-        <v>154.212319310135</v>
+        <v>1503.592714112994</v>
       </c>
       <c r="S7">
-        <v>0.005624752775899476</v>
+        <v>0.005495833316473657</v>
       </c>
       <c r="T7">
-        <v>0.005624752775899476</v>
+        <v>0.005495833316473658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="H8">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="I8">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J8">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>86.18109666727484</v>
+        <v>89.19615466761</v>
       </c>
       <c r="R8">
-        <v>86.18109666727484</v>
+        <v>802.7653920084899</v>
       </c>
       <c r="S8">
-        <v>0.003143376384440753</v>
+        <v>0.002934215326598575</v>
       </c>
       <c r="T8">
-        <v>0.003143376384440753</v>
+        <v>0.002934215326598575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="H9">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="I9">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J9">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>193.5226656659457</v>
+        <v>200.650819460928</v>
       </c>
       <c r="R9">
-        <v>193.5226656659457</v>
+        <v>1805.857375148352</v>
       </c>
       <c r="S9">
-        <v>0.007058561571302788</v>
+        <v>0.006600651249493982</v>
       </c>
       <c r="T9">
-        <v>0.007058561571302788</v>
+        <v>0.006600651249493983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="H10">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="I10">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J10">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>108.3004934662686</v>
+        <v>123.319402579476</v>
       </c>
       <c r="R10">
-        <v>108.3004934662686</v>
+        <v>1109.874623215284</v>
       </c>
       <c r="S10">
-        <v>0.00395016107649995</v>
+        <v>0.004056740814266021</v>
       </c>
       <c r="T10">
-        <v>0.00395016107649995</v>
+        <v>0.004056740814266023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="H11">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="I11">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J11">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>13.7389370936925</v>
+        <v>15.27142425432</v>
       </c>
       <c r="R11">
-        <v>13.7389370936925</v>
+        <v>137.44281828888</v>
       </c>
       <c r="S11">
-        <v>0.0005011151177892723</v>
+        <v>0.0005023719606859552</v>
       </c>
       <c r="T11">
-        <v>0.0005011151177892723</v>
+        <v>0.0005023719606859552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H12">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="I12">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J12">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>4007.59800281074</v>
+        <v>4241.048284359395</v>
       </c>
       <c r="R12">
-        <v>4007.59800281074</v>
+        <v>38169.43455923455</v>
       </c>
       <c r="S12">
-        <v>0.1461734580728625</v>
+        <v>0.1395144098216467</v>
       </c>
       <c r="T12">
-        <v>0.1461734580728625</v>
+        <v>0.1395144098216467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H13">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="I13">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J13">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>2239.634242120572</v>
+        <v>2264.287899618575</v>
       </c>
       <c r="R13">
-        <v>2239.634242120572</v>
+        <v>20378.59109656717</v>
       </c>
       <c r="S13">
-        <v>0.08168860293860643</v>
+        <v>0.07448648749098076</v>
       </c>
       <c r="T13">
-        <v>0.08168860293860643</v>
+        <v>0.07448648749098077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H14">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="I14">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J14">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>5029.176993711705</v>
+        <v>5093.618937352159</v>
       </c>
       <c r="R14">
-        <v>5029.176993711705</v>
+        <v>45842.57043616943</v>
       </c>
       <c r="S14">
-        <v>0.1834346139297743</v>
+        <v>0.1675607520248711</v>
       </c>
       <c r="T14">
-        <v>0.1834346139297743</v>
+        <v>0.1675607520248711</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H15">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="I15">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J15">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>2814.462834489714</v>
+        <v>3130.523194519469</v>
       </c>
       <c r="R15">
-        <v>2814.462834489714</v>
+        <v>28174.70875067523</v>
       </c>
       <c r="S15">
-        <v>0.1026549481376065</v>
+        <v>0.1029823446073618</v>
       </c>
       <c r="T15">
-        <v>0.1026549481376065</v>
+        <v>0.1029823446073618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H16">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="I16">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J16">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N16">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q16">
-        <v>357.0411047816064</v>
+        <v>387.6725546953999</v>
       </c>
       <c r="R16">
-        <v>357.0411047816064</v>
+        <v>3489.052992258599</v>
       </c>
       <c r="S16">
-        <v>0.01302274652384773</v>
+        <v>0.01275295729875152</v>
       </c>
       <c r="T16">
-        <v>0.01302274652384773</v>
+        <v>0.01275295729875152</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="H17">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="I17">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="J17">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N17">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q17">
-        <v>3346.139716817005</v>
+        <v>3910.352570847979</v>
       </c>
       <c r="R17">
-        <v>3346.139716817005</v>
+        <v>35193.17313763181</v>
       </c>
       <c r="S17">
-        <v>0.1220473743272272</v>
+        <v>0.1286357745862871</v>
       </c>
       <c r="T17">
-        <v>0.1220473743272272</v>
+        <v>0.1286357745862871</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="H18">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="I18">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="J18">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N18">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q18">
-        <v>1869.980243389425</v>
+        <v>2087.730064773567</v>
       </c>
       <c r="R18">
-        <v>1869.980243389425</v>
+        <v>18789.5705829621</v>
       </c>
       <c r="S18">
-        <v>0.06820581268691532</v>
+        <v>0.06867840409362097</v>
       </c>
       <c r="T18">
-        <v>0.06820581268691532</v>
+        <v>0.06867840409362098</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="H19">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="I19">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="J19">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N19">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q19">
-        <v>4199.106015563059</v>
+        <v>4696.444032493145</v>
       </c>
       <c r="R19">
-        <v>4199.106015563059</v>
+        <v>42267.9962924383</v>
       </c>
       <c r="S19">
-        <v>0.1531585370286448</v>
+        <v>0.1544952034312068</v>
       </c>
       <c r="T19">
-        <v>0.1531585370286448</v>
+        <v>0.1544952034312069</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="H20">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="I20">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="J20">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N20">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q20">
-        <v>2349.932769051773</v>
+        <v>2886.420667959335</v>
       </c>
       <c r="R20">
-        <v>2349.932769051773</v>
+        <v>25977.78601163402</v>
       </c>
       <c r="S20">
-        <v>0.08571164045149285</v>
+        <v>0.09495229692914868</v>
       </c>
       <c r="T20">
-        <v>0.08571164045149285</v>
+        <v>0.09495229692914869</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="H21">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="I21">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="J21">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N21">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q21">
-        <v>298.1110930807038</v>
+        <v>357.4437896618622</v>
       </c>
       <c r="R21">
-        <v>298.1110930807038</v>
+        <v>3216.994106956759</v>
       </c>
       <c r="S21">
-        <v>0.0108733284463475</v>
+        <v>0.01175854553295191</v>
       </c>
       <c r="T21">
-        <v>0.0108733284463475</v>
+        <v>0.01175854553295191</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="H22">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="I22">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="J22">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N22">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q22">
-        <v>53.91373558447673</v>
+        <v>60.83254280207333</v>
       </c>
       <c r="R22">
-        <v>53.91373558447673</v>
+        <v>547.49288521866</v>
       </c>
       <c r="S22">
-        <v>0.001966454011226104</v>
+        <v>0.002001160028826051</v>
       </c>
       <c r="T22">
-        <v>0.001966454011226104</v>
+        <v>0.002001160028826052</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="H23">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="I23">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="J23">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N23">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q23">
-        <v>30.12953101856578</v>
+        <v>32.47838301623334</v>
       </c>
       <c r="R23">
-        <v>30.12953101856578</v>
+        <v>292.3054471461</v>
       </c>
       <c r="S23">
-        <v>0.001098946984205622</v>
+        <v>0.001068415668640665</v>
       </c>
       <c r="T23">
-        <v>0.001098946984205622</v>
+        <v>0.001068415668640665</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="H24">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="I24">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="J24">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N24">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q24">
-        <v>67.65691530346616</v>
+        <v>73.06160440725333</v>
       </c>
       <c r="R24">
-        <v>67.65691530346616</v>
+        <v>657.55443966528</v>
       </c>
       <c r="S24">
-        <v>0.002467723874878242</v>
+        <v>0.002403449792611883</v>
       </c>
       <c r="T24">
-        <v>0.002467723874878242</v>
+        <v>0.002403449792611883</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="H25">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="I25">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="J25">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N25">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q25">
-        <v>37.86263117323477</v>
+        <v>44.90344684964</v>
       </c>
       <c r="R25">
-        <v>37.86263117323477</v>
+        <v>404.13102164676</v>
       </c>
       <c r="S25">
-        <v>0.001381004713159215</v>
+        <v>0.0014771531626482</v>
       </c>
       <c r="T25">
-        <v>0.001381004713159215</v>
+        <v>0.001477153162648201</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="H26">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="I26">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="J26">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N26">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q26">
-        <v>4.803231187979518</v>
+        <v>5.560678798133334</v>
       </c>
       <c r="R26">
-        <v>4.803231187979518</v>
+        <v>50.0461091832</v>
       </c>
       <c r="S26">
-        <v>0.000175193448089845</v>
+        <v>0.000182925250719351</v>
       </c>
       <c r="T26">
-        <v>0.000175193448089845</v>
+        <v>0.000182925250719351</v>
       </c>
     </row>
   </sheetData>
